--- a/U233_MET_FAST_002/U233_MET_FAST_002_002/U233_MET_FAST_002_002.xlsx
+++ b/U233_MET_FAST_002/U233_MET_FAST_002_002/U233_MET_FAST_002_002.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_neutronics\U233_MET_FAST_002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_neutronics\U233_MET_FAST_002\U233_MET_FAST_002_002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898F5749-DB40-49DB-B44B-7871FABB2080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4587018-4F5F-4FB7-BADA-C705A5F54D88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12107" yWindow="2647" windowWidth="9600" windowHeight="4920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,28 +429,151 @@
   </cellStyleXfs>
   <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,8 +582,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,141 +603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,7 +969,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -983,364 +983,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="G1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="60"/>
+      <c r="G2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="62"/>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="4">
         <v>18.643999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="G4" s="19" t="s">
+      <c r="E4" s="48"/>
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="11">
         <v>4.7312E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="26">
-        <v>1.00013</v>
-      </c>
-      <c r="C6" s="27">
-        <v>2.0799999999999998E-3</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="B6" s="12">
         <v>1.0006999999999999</v>
       </c>
-      <c r="E6" s="29">
+      <c r="C6" s="13">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D6" s="50">
+        <v>1.0006999999999999</v>
+      </c>
+      <c r="E6" s="52">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="11">
         <v>5.2769999999999998E-4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="25"/>
-      <c r="B7" s="30">
-        <v>0.99727600000000005</v>
-      </c>
-      <c r="C7" s="31">
-        <v>1.98E-3</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="G7" s="32" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="14">
+        <v>0.99641900000000005</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="52"/>
+      <c r="G7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="17">
         <v>3.3014999999999997E-4</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
-      <c r="B8" s="30">
-        <v>3.86536E-3</v>
-      </c>
-      <c r="C8" s="31">
-        <v>3.5220000000000001E-2</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="G8" s="9" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="14">
+        <v>3.6717199999999998E-3</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2.5329999999999998E-2</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="52"/>
+      <c r="G8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="30">
-        <v>1.0012000000000001</v>
-      </c>
-      <c r="C9" s="31">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="G9" s="14" t="s">
+      <c r="B9" s="14">
+        <v>1.00034</v>
+      </c>
+      <c r="C9" s="15">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="52"/>
+      <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="19">
         <v>18.8</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="30">
-        <v>1.00088</v>
-      </c>
-      <c r="C10" s="31">
-        <v>1.3799999999999999E-3</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="G10" s="19" t="s">
+      <c r="B10" s="14">
+        <v>1.0005299999999999</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="52"/>
+      <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="30">
-        <v>1.0012000000000001</v>
-      </c>
-      <c r="C11" s="31">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="G11" s="23" t="s">
+      <c r="B11" s="14">
+        <v>1.00034</v>
+      </c>
+      <c r="C11" s="15">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="53"/>
+      <c r="G11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="11">
         <v>4.4892000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="39">
-        <v>2.5058799999999999</v>
-      </c>
-      <c r="C12" s="40">
-        <v>2.3000000000000001E-4</v>
-      </c>
-      <c r="G12" s="41" t="s">
+      <c r="B12" s="21">
+        <v>2.5054799999999999</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="17">
         <v>3.2339999999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="21">
         <v>1</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="42"/>
-      <c r="B14" s="39">
+      <c r="A14" s="40"/>
+      <c r="B14" s="21">
         <v>1</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45">
+      <c r="A15" s="41"/>
+      <c r="B15" s="25">
         <v>1</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="52"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="55" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="56"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="58">
-        <v>5000</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="58">
+      <c r="B21" s="34">
+        <v>10000</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34">
         <v>1500</v>
       </c>
-      <c r="E21" s="59"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="34">
         <v>100</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="58">
+      <c r="C22" s="35"/>
+      <c r="D22" s="34">
         <v>305</v>
       </c>
-      <c r="E22" s="59"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="58">
-        <v>20</v>
-      </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="58">
+      <c r="B23" s="34">
+        <v>50</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34">
         <v>5</v>
       </c>
-      <c r="E23" s="59"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="36">
         <f>B21*(B22-B23)</f>
-        <v>400000</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="61">
+        <v>500000</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="36">
         <f>D21*(D22-D23)</f>
         <v>450000</v>
       </c>
-      <c r="E24" s="62"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B24:C24"/>
@@ -1351,25 +1370,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
